--- a/financial_files/excel/TSLA.xlsx
+++ b/financial_files/excel/TSLA.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data" ref="A1:O114" headerRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="financial_data" displayName="financial_data_scraped" ref="A1:O114" headerRowCount="1">
   <autoFilter ref="A1:O114"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Category"/>

--- a/financial_files/excel/TSLA.xlsx
+++ b/financial_files/excel/TSLA.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_data_scraped" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="financial_statement_api" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="rule1_results" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -156,6 +158,40 @@
     <tableColumn id="13" name="2018"/>
     <tableColumn id="14" name="2019"/>
     <tableColumn id="15" name="TTM"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="financial_statement_api" displayName="financial_statement_api" ref="A1:N23" headerRowCount="1">
+  <autoFilter ref="A1:N23"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="API Parameter"/>
+    <tableColumn id="2" name="2007"/>
+    <tableColumn id="3" name="2008"/>
+    <tableColumn id="4" name="2009"/>
+    <tableColumn id="5" name="2010"/>
+    <tableColumn id="6" name="2011"/>
+    <tableColumn id="7" name="2012"/>
+    <tableColumn id="8" name="2013"/>
+    <tableColumn id="9" name="2014"/>
+    <tableColumn id="10" name="2015"/>
+    <tableColumn id="11" name="2016"/>
+    <tableColumn id="12" name="2017"/>
+    <tableColumn id="13" name="2018"/>
+    <tableColumn id="14" name="2019"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="rule1_results" displayName="rule1_results" ref="A1:B55" headerRowCount="1">
+  <autoFilter ref="A1:B55"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule #1 Metric"/>
+    <tableColumn id="2" name="Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6769,4 +6805,1755 @@
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>API Parameter</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>revenue</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>73000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14742000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>111943000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>116744000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>204242000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>413256000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2013496000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3198356000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4046025000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7000132000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11759000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>21461000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24578000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>operating_income</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-79933000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-78504000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-51897000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-146838000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-251488000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-394283000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-61283000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-186689000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-716629000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-667340000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-1632000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-253000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pretax_income</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-78047000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-82685000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-55714000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-154155000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-253922000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-396077000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-71426000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-284636000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-875624000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-746348000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2209000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1005000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-665000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>income_tax</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-110000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-97000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-26000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-173000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-489000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-136000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-2588000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-9404000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-13039000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-26698000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-32000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-58000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-110000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>eps_diluted</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>shares_diluted</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>389869000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>389869000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>389869000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>253592000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>501944000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>536746000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>597105000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>622695000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>641010000</v>
+      </c>
+      <c r="K7" t="n">
+        <v>721060000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>830000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>855000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>885000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>total_assets</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>34837000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>51699000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>130424000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>386082000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>713448000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1114190000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2416930000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5830667000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8067939000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22664076000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>28655372000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>29740000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>34309000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>st_debt</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7916000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50841000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>182000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>611099000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>627927000</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1150147000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>896549000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2568000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1785000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>lt_debt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>54528000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71828000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>268335000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>401495000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>586119000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1876981000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2068378000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5978284000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9418389000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9404000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11634000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>total_equity</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-117846000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-199714000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-253523000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>207048000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>224045000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>124700000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>667120000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>911710000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1083704000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5538086000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5234588000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5757000000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7467000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>cf_cfo</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-53469000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-52412000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-80825000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-127817000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-128034000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-263815000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>264804000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-57337000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-524499000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-123829000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-61000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2098000000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2405000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>cfi_ppe_net</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-9802000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-10630000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-11884000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-105413000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-184226000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-239228000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-264224000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-969885000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1634850000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-1440471000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-4081000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-2319000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-1432000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>roic</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5736</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.2342</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.1654</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.1897</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1.2519</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.1837</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-0.3071</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.4154</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-0.09470000000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.1487</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.0619</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.0521</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>revenue_growth</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>200.9452</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6.5934</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7494</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0233</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.8722</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.5884</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.7301</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.6798</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.825</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.1452</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eps_diluted_growth</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3254</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-3.2517</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1677</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.4584</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8319</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-2.8064</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1.9364</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.3246</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-1.5277</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.5164</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.1398</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>total_equity_growth</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.6947</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.2694</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.8166</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.4434</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.3497</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3666</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1886</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.1103</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.0548</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0998</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.297</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>cfo_growth</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.5421</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.5814</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.0016</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1.0605</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.0037</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-1.2165</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-8.147600000000001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7639</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.5073</v>
+      </c>
+      <c r="M18" t="n">
+        <v>35.3934</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.1463</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>fcf_growth</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.4705</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.5157</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.3388</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.6109</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.0011</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1772.0724</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1.1021</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2755</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-1.6478</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.9466</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.4027</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>fcf</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-63271000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-63042000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-92709000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-233230000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-312260000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-503043000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>579999.99999997</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1027222000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-2159349000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-1564300000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-4142000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-221000000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>973000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>book_value_per_share</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.3022</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.5122</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.6502</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8164</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4463</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2323</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.1172</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.4641</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.6906</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7.6804</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6.3067</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6.7333</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.437200000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>market_cap</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2529308860</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2984342920</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3866150670</v>
+      </c>
+      <c r="H22" t="n">
+        <v>18519040950</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27952922240</v>
+      </c>
+      <c r="J22" t="n">
+        <v>31542000000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>34525585700</v>
+      </c>
+      <c r="L22" t="n">
+        <v>52554945950</v>
+      </c>
+      <c r="M22" t="n">
+        <v>57442145280</v>
+      </c>
+      <c r="N22" t="n">
+        <v>75747287700</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>price_to_earnings</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-16.3891</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-11.7304</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-9.7577</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-250.2099</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-95.065</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-35.4937</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-51.1555</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-26.7864</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-58.8546</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-87.8738</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Rule #1 Metric</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ROIC - 10-year</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-21.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ROIC - 5-year</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-7.28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ROIC - 3-year</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-3.90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ROIC - 1-year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 10-year</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-15.40%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 5-year</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-15.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 3-year</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-8.76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ROIC QuickFS - 1-year</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-5.21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>130.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>41.95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Equity Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25.31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-21.48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-15.83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-1.76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EPS Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14.04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>71.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>50.36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>51.99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Sales Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>127.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>114.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>117.49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>540.27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 10-year</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>140.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 5-year</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>212.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 3-year</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>273.34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>OCF Growth Rate - 1-year</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>14.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Debt - Current Long-Term Debt</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>11634000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Debt - Payoff Possible</t>
+        </is>
+      </c>
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>current_eps</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5229999731967619</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>analyst_growth_rate</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>3.9648</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>equity_growth_rate</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5015326413449082</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>eps_growth_rate</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5015326413449082</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>future_eps</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>30.46838557337282</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>average_historical_pe</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>default_pe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>100.3065282689816</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>future_pe</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>100.3065282689816</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>future_market_price</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3056.177978825754</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>sticker_price</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>755.4404555521619</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>margin_of_safety</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>377.7202277760809</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tesla, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>currency</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>us_market</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>exchange</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sector</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>industry</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Auto Manufacturers</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>website</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>http://www.tesla.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>marketCap</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>691749715968</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>47121989</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>forwardPE</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>190.04428</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>previousClose</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>705.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>